--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -414,7 +414,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6190d0c97de120f3eca62ef2</v>
+        <v>619486f0525b4740e4a84efb</v>
       </c>
       <c r="B2" t="str">
         <v/>
@@ -443,7 +443,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6190d0c97de120f3eca62ef3</v>
+        <v>619486f0525b4740e4a84efc</v>
       </c>
       <c r="B3" t="str">
         <v/>
@@ -472,7 +472,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6190d0c97de120f3eca62ef4</v>
+        <v>619486f0525b4740e4a84efd</v>
       </c>
       <c r="B4" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>6190d0c97de120f3eca62ef5</v>
+        <v>619486f0525b4740e4a84efe</v>
       </c>
       <c r="B5" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>6190d0c97de120f3eca62ef6</v>
+        <v>619486f0525b4740e4a84eff</v>
       </c>
       <c r="B6" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6190d0c97de120f3eca62ef7</v>
+        <v>619486f0525b4740e4a84f00</v>
       </c>
       <c r="B7" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>6190d0c97de120f3eca62ef8</v>
+        <v>619486f0525b4740e4a84f01</v>
       </c>
       <c r="B8" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>6190d0c97de120f3eca62ef9</v>
+        <v>619486f0525b4740e4a84f02</v>
       </c>
       <c r="B9" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6190d0c97de120f3eca62efa</v>
+        <v>619486f0525b4740e4a84f03</v>
       </c>
       <c r="B10" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>6190d0c97de120f3eca62efb</v>
+        <v>619486f0525b4740e4a84f04</v>
       </c>
       <c r="B11" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>6190d0c97de120f3eca62efc</v>
+        <v>619486f0525b4740e4a84f05</v>
       </c>
       <c r="B12" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>6190d0c97de120f3eca62efd</v>
+        <v>619486f0525b4740e4a84f06</v>
       </c>
       <c r="B13" t="str">
         <v>QH-2020-I/CQ-E</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>6190d0c97de120f3eca62efe</v>
+        <v>619486f0525b4740e4a84f07</v>
       </c>
       <c r="B14" t="str">
         <v>QH-2016-I/CQ-E</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>6190d0c97de120f3eca62eff</v>
+        <v>619486f0525b4740e4a84f08</v>
       </c>
       <c r="B15" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>6190d0c97de120f3eca62f00</v>
+        <v>619486f0525b4740e4a84f09</v>
       </c>
       <c r="B16" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>6190d0c97de120f3eca62f01</v>
+        <v>619486f0525b4740e4a84f0a</v>
       </c>
       <c r="B17" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>6190d0c97de120f3eca62f02</v>
+        <v>619486f0525b4740e4a84f0b</v>
       </c>
       <c r="B18" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>6190d0c97de120f3eca62f03</v>
+        <v>619486f0525b4740e4a84f0c</v>
       </c>
       <c r="B19" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>6190d0c97de120f3eca62f04</v>
+        <v>619486f0525b4740e4a84f0d</v>
       </c>
       <c r="B20" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>6190d0c97de120f3eca62f05</v>
+        <v>619486f0525b4740e4a84f0e</v>
       </c>
       <c r="B21" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>6190d0c97de120f3eca62f06</v>
+        <v>619486f0525b4740e4a84f0f</v>
       </c>
       <c r="B22" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>6190d0c97de120f3eca62f07</v>
+        <v>619486f0525b4740e4a84f10</v>
       </c>
       <c r="B23" t="str">
         <v>QH-2018-I/CQ-E</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>6190d0c97de120f3eca62f08</v>
+        <v>619486f0525b4740e4a84f11</v>
       </c>
       <c r="B24" t="str">
         <v>QH-2015-I/CQ-V</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>6190d0c97de120f3eca62f09</v>
+        <v>619486f0525b4740e4a84f12</v>
       </c>
       <c r="B25" t="str">
         <v>QH-2017-I/CQ-V</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>6190d0c97de120f3eca62f0a</v>
+        <v>619486f0525b4740e4a84f13</v>
       </c>
       <c r="B26" t="str">
         <v>QH-2017-I/CQ-V</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>6190d0c97de120f3eca62f0b</v>
+        <v>619486f0525b4740e4a84f14</v>
       </c>
       <c r="B27" t="str">
         <v>QH-2017-I/CQ-V</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>6190d0c97de120f3eca62f0c</v>
+        <v>619486f0525b4740e4a84f15</v>
       </c>
       <c r="B28" t="str">
         <v>QH-2017-I/CQ-V</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>6190d0c97de120f3eca62f0d</v>
+        <v>619486f0525b4740e4a84f16</v>
       </c>
       <c r="B29" t="str">
         <v>QH-2017-I/CQ-V</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>6190d0c97de120f3eca62f0e</v>
+        <v>619486f0525b4740e4a84f17</v>
       </c>
       <c r="B30" t="str">
         <v>QH-2017-I/CQ-V</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>6190d0c97de120f3eca62f0f</v>
+        <v>619486f0525b4740e4a84f18</v>
       </c>
       <c r="B31" t="str">
         <v>QH-2019-I/CQ-V</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>6190d0c97de120f3eca62f10</v>
+        <v>619486f0525b4740e4a84f19</v>
       </c>
       <c r="B32" t="str">
         <v>QH-2017-I/CQ-V</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>6190d0c97de120f3eca62f11</v>
+        <v>619486f0525b4740e4a84f1a</v>
       </c>
       <c r="B33" t="str">
         <v>QH-2017-I/CQ-V</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>6190d0c97de120f3eca62f12</v>
+        <v>619486f0525b4740e4a84f1b</v>
       </c>
       <c r="B34" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>6190d0c97de120f3eca62f13</v>
+        <v>619486f0525b4740e4a84f1c</v>
       </c>
       <c r="B35" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>6190d0c97de120f3eca62f14</v>
+        <v>619486f0525b4740e4a84f1d</v>
       </c>
       <c r="B36" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>6190d0c97de120f3eca62f15</v>
+        <v>619486f0525b4740e4a84f1e</v>
       </c>
       <c r="B37" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>6190d0c97de120f3eca62f16</v>
+        <v>619486f0525b4740e4a84f1f</v>
       </c>
       <c r="B38" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>6190d0c97de120f3eca62f17</v>
+        <v>619486f0525b4740e4a84f20</v>
       </c>
       <c r="B39" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>6190d0c97de120f3eca62f18</v>
+        <v>619486f0525b4740e4a84f21</v>
       </c>
       <c r="B40" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>6190d0c97de120f3eca62f19</v>
+        <v>619486f0525b4740e4a84f22</v>
       </c>
       <c r="B41" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>6190d0c97de120f3eca62f1a</v>
+        <v>619486f0525b4740e4a84f23</v>
       </c>
       <c r="B42" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>6190d0c97de120f3eca62f1b</v>
+        <v>619486f0525b4740e4a84f24</v>
       </c>
       <c r="B43" t="str">
         <v>QH-2019-I/CQ-A-E</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>6190d0c97de120f3eca62f1c</v>
+        <v>619486f0525b4740e4a84f25</v>
       </c>
       <c r="B44" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>6190d0c97de120f3eca62f1d</v>
+        <v>619486f0525b4740e4a84f26</v>
       </c>
       <c r="B45" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>6190d0c97de120f3eca62f1e</v>
+        <v>619486f0525b4740e4a84f27</v>
       </c>
       <c r="B46" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>6190d0c97de120f3eca62f1f</v>
+        <v>619486f0525b4740e4a84f28</v>
       </c>
       <c r="B47" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>6190d0c97de120f3eca62f20</v>
+        <v>619486f0525b4740e4a84f29</v>
       </c>
       <c r="B48" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>6190d0c97de120f3eca62f21</v>
+        <v>619486f0525b4740e4a84f2a</v>
       </c>
       <c r="B49" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>6190d0c97de120f3eca62f22</v>
+        <v>619486f0525b4740e4a84f2b</v>
       </c>
       <c r="B50" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>6190d0c97de120f3eca62f23</v>
+        <v>619486f0525b4740e4a84f2c</v>
       </c>
       <c r="B51" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>6190d0c97de120f3eca62f24</v>
+        <v>619486f0525b4740e4a84f2d</v>
       </c>
       <c r="B52" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>6190d0c97de120f3eca62f25</v>
+        <v>619486f0525b4740e4a84f2e</v>
       </c>
       <c r="B53" t="str">
         <v>QH-2017-I/CQ-E</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>6190d0c97de120f3eca62f26</v>
+        <v>619486f0525b4740e4a84f2f</v>
       </c>
       <c r="B54" t="str">
         <v/>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>6190d0c97de120f3eca62f27</v>
+        <v>619486f0525b4740e4a84f30</v>
       </c>
       <c r="B55" t="str">
         <v/>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>6190d0c97de120f3eca62f28</v>
+        <v>619486f0525b4740e4a84f31</v>
       </c>
       <c r="B56" t="str">
         <v/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>6190d0c97de120f3eca62f29</v>
+        <v>619486f0525b4740e4a84f32</v>
       </c>
       <c r="B57" t="str">
         <v/>

--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -375,10 +375,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" customWidth="1"/>
+    <col min="7" max="7" width="50.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -411,57 +421,57 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>618a5eb24ff4ea067131c32b</v>
+        <v>618a5d104ff4ea067131c317</v>
       </c>
       <c r="B2" t="str">
-        <v>18020664</v>
+        <v>20020754</v>
       </c>
       <c r="C2" t="str">
-        <v>Bùi Thị Huyền</v>
+        <v>Phạm Thế Anh</v>
       </c>
       <c r="D2" t="str">
-        <v>Sun Jun 04 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>2002-07-06</v>
       </c>
       <c r="E2" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0398141310</v>
+        <v>0398141301</v>
       </c>
       <c r="H2" t="str">
-        <v>0497150110</v>
+        <v>0497150101</v>
       </c>
       <c r="I2" t="str">
-        <v>Hà Nội</v>
+        <v>Bắc Ninh</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>618a5edc4ff4ea067131c32d</v>
+        <v>618a5df54ff4ea067131c323</v>
       </c>
       <c r="B3" t="str">
-        <v>18020613</v>
+        <v>20020778</v>
       </c>
       <c r="C3" t="str">
-        <v>Nguyễn Quốc Hưng</v>
+        <v>Trần Văn Em</v>
       </c>
       <c r="D3" t="str">
-        <v>Fri Oct 13 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>Sat Sep 14 2002 07:00:00 GMT+0700 (Indochina Time)</v>
       </c>
       <c r="E3" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>0398141311</v>
+        <v>0398141307</v>
       </c>
       <c r="H3" t="str">
-        <v>0497150111</v>
+        <v>0497150107</v>
       </c>
       <c r="I3" t="str">
         <v>Hà Nội</v>
@@ -469,57 +479,57 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>618a5f294ff4ea067131c331</v>
+        <v>618a5c2d4ff4ea067131c315</v>
       </c>
       <c r="B4" t="str">
-        <v>18020622</v>
+        <v>20020746</v>
       </c>
       <c r="C4" t="str">
-        <v>Bùi Thị Thu Hương</v>
+        <v>Nguyễn Bá Hoài An</v>
       </c>
       <c r="D4" t="str">
-        <v>Wed Jun 28 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>Mon Oct 28 2002 07:00:00 GMT+0700 (Indochina Time)</v>
       </c>
       <c r="E4" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>0398141312</v>
+        <v>0398141300</v>
       </c>
       <c r="H4" t="str">
-        <v>0497150112</v>
+        <v>0497150100</v>
       </c>
       <c r="I4" t="str">
-        <v>Hà Nội</v>
+        <v>Hải Phòng</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>618a5f4c4ff4ea067131c333</v>
+        <v>618a5d5e4ff4ea067131c31b</v>
       </c>
       <c r="B5" t="str">
-        <v>18020700</v>
+        <v>20020760</v>
       </c>
       <c r="C5" t="str">
-        <v>Trần Thị Khánh</v>
+        <v>Đinh Đức Chung</v>
       </c>
       <c r="D5" t="str">
-        <v>Mon Dec 04 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>Tue Jul 16 2002 07:00:00 GMT+0700 (Indochina Time)</v>
       </c>
       <c r="E5" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>0398141313</v>
+        <v>0398141303</v>
       </c>
       <c r="H5" t="str">
-        <v>0497150113</v>
+        <v>0497150103</v>
       </c>
       <c r="I5" t="str">
         <v>Hà Nội</v>
@@ -527,28 +537,28 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>618a5f684ff4ea067131c335</v>
+        <v>618a5d864ff4ea067131c31d</v>
       </c>
       <c r="B6" t="str">
-        <v>18020722</v>
+        <v>20020766</v>
       </c>
       <c r="C6" t="str">
-        <v>Đào Minh Khôi</v>
+        <v>Cao Tiến Dũng</v>
       </c>
       <c r="D6" t="str">
-        <v>Sun Jun 11 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>Sun Apr 29 2001 07:00:00 GMT+0700 (Indochina Time)</v>
       </c>
       <c r="E6" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <v>0398141314</v>
+        <v>0398141304</v>
       </c>
       <c r="H6" t="str">
-        <v>0497150114</v>
+        <v>0497150104</v>
       </c>
       <c r="I6" t="str">
         <v>Hà Nội</v>
@@ -556,28 +566,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>618a5f944ff4ea067131c337</v>
+        <v>618a5dab4ff4ea067131c31f</v>
       </c>
       <c r="B7" t="str">
-        <v>18020752</v>
+        <v>20020770</v>
       </c>
       <c r="C7" t="str">
-        <v>Nguyễn Ngọc Lân</v>
+        <v>Hoàng Viết Dương</v>
       </c>
       <c r="D7" t="str">
-        <v>Tue Sep 26 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>Tue Oct 31 2000 07:00:00 GMT+0700 (Indochina Time)</v>
       </c>
       <c r="E7" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>0398141315</v>
+        <v>0398141305</v>
       </c>
       <c r="H7" t="str">
-        <v>0497150115</v>
+        <v>0497150105</v>
       </c>
       <c r="I7" t="str">
         <v>Hà Nội</v>
@@ -585,28 +595,28 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>618a5fb54ff4ea067131c339</v>
+        <v>618a5dd14ff4ea067131c321</v>
       </c>
       <c r="B8" t="str">
-        <v>18020764</v>
+        <v>20020774</v>
       </c>
       <c r="C8" t="str">
-        <v>Phạm Quang Linh</v>
+        <v>Nguyễn Thế Danh</v>
       </c>
       <c r="D8" t="str">
-        <v>Mon Mar 13 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>Fri Sep 20 2002 07:00:00 GMT+0700 (Indochina Time)</v>
       </c>
       <c r="E8" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>0398141316</v>
+        <v>0398141306</v>
       </c>
       <c r="H8" t="str">
-        <v>0497150116</v>
+        <v>0497150106</v>
       </c>
       <c r="I8" t="str">
         <v>Hà Nội</v>
@@ -614,65 +624,175 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>618a5fcc4ff4ea067131c33b</v>
+        <v>618a5d384ff4ea067131c319</v>
       </c>
       <c r="B9" t="str">
-        <v>18020771</v>
+        <v>20020756</v>
       </c>
       <c r="C9" t="str">
-        <v>Vũ Việt Linh</v>
+        <v xml:space="preserve"> Nguyễn Đình Bắc</v>
       </c>
       <c r="D9" t="str">
-        <v>Thu Jun 15 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>Mon Mar 11 2002 07:00:00 GMT+0700 (Indochina Time)</v>
       </c>
       <c r="E9" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="str">
-        <v>0398141317</v>
+        <v>0398141302</v>
       </c>
       <c r="H9" t="str">
-        <v>0497150117</v>
+        <v>0497150102</v>
       </c>
       <c r="I9" t="str">
-        <v>Hà Nội</v>
+        <v>Hà Tĩnh</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>618a5fee4ff4ea067131c33d</v>
+        <v>618a5e1b4ff4ea067131c325</v>
       </c>
       <c r="B10" t="str">
-        <v>18020867</v>
+        <v>20020780</v>
       </c>
       <c r="C10" t="str">
-        <v>Trần Thanh Lương</v>
+        <v>Nguyễn Trung Hưng</v>
       </c>
       <c r="D10" t="str">
-        <v>Fri Feb 25 2000 07:00:00 GMT+0700 (Indochina Time)</v>
+        <v>Mon Jul 08 2002 07:00:00 GMT+0700 (Indochina Time)</v>
       </c>
       <c r="E10" t="str">
-        <v>QH-2018-I/CQ-E</v>
+        <v>QH-2020-I/CQ-E</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="str">
-        <v>0398141318</v>
+        <v>0398141308</v>
       </c>
       <c r="H10" t="str">
-        <v>0497150118</v>
+        <v>0497150108</v>
       </c>
       <c r="I10" t="str">
         <v>Hà Nội</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>618a5e454ff4ea067131c327</v>
+      </c>
+      <c r="B11" t="str">
+        <v>20020784</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Nguyễn Tiến Hải</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Thu May 09 2002 07:00:00 GMT+0700 (Indochina Time)</v>
+      </c>
+      <c r="E11" t="str">
+        <v>QH-2020-I/CQ-E</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0398141309</v>
+      </c>
+      <c r="H11" t="str">
+        <v>04971501009</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Hà Nội</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>61a79a608205a4b87c13cd83</v>
+      </c>
+      <c r="B12" t="str">
+        <v>20021397</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Phạm Văn Vũ</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2001-03-21</v>
+      </c>
+      <c r="E12" t="str">
+        <v>QH-2020-I/CQ-E</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0337685001</v>
+      </c>
+      <c r="H12" t="str">
+        <v>0967486985</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Cao Nhang, Tay Dang, Ba Vi, Ha Noi</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>61a79bdc8205a4b87c13cd85</v>
+      </c>
+      <c r="B13" t="str">
+        <v>20029393</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Ngo Ba Kha</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Wed Nov 17 1993 00:00:00 GMT+0700 (Indochina Time)</v>
+      </c>
+      <c r="E13" t="str">
+        <v>QH-2020-I/CQ-E</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <v>0337453643</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Tu Son, Bac Ninh</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>61a79d078205a4b87c13cd87</v>
+      </c>
+      <c r="B14" t="str">
+        <v>20021984</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Bui Xuan Huan</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Mon Sep 03 1984 00:00:00 GMT+0700 (Indochina Time)</v>
+      </c>
+      <c r="E14" t="str">
+        <v>QH-2020-I/CQ-E</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0978654999</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Bao Dap, Tran Yen, Yen Bai</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,9 +790,38 @@
         <v>Bao Dap, Tran Yen, Yen Bai</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>61aeaab9ff850e8ffe41e6b1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>19021341</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Nguyễn Duy Ngọc</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Fri Feb 01 2002 07:00:00 GMT+0700 (Indochina Time)</v>
+      </c>
+      <c r="E15" t="str">
+        <v>QH-2020-I/CQ-E</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>0123</v>
+      </c>
+      <c r="H15" t="str">
+        <v>0123</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Hà Nội</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0398141301</v>
+        <v>0927829570</v>
       </c>
       <c r="H2" t="str">
         <v>0497150101</v>
